--- a/datasets/policies.xlsx
+++ b/datasets/policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive\Desktop\Repos\uni\VBA\visual_analytics_aqi\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{69B45B23-E248-4527-BCE8-231921B08AA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{01110E16-B712-4289-B691-6FF677A8CCBE}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{69B45B23-E248-4527-BCE8-231921B08AA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{39C6D82A-0295-49BD-9A5E-85C5D81E62EA}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="policy_gdp_per_capita" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>date</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>https://tradingeconomics.com</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -466,14 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,6 +735,11 @@
       </c>
       <c r="J8">
         <v>43800</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
